--- a/1_Performer_YR/Data/Report/Yearly-Report-2023-FR322345.xlsx
+++ b/1_Performer_YR/Data/Report/Yearly-Report-2023-FR322345.xlsx
@@ -76,106 +76,61 @@
     <x:t>139604</x:t>
   </x:si>
   <x:si>
-    <x:t>924683</x:t>
+    <x:t>816384</x:t>
   </x:si>
   <x:si>
     <x:t>Waste management services</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-12-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14217.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85305.6</x:t>
+    <x:t>2017-02-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>831899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>194231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38846.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233077</x:t>
   </x:si>
   <x:si>
     <x:t>EUR</x:t>
   </x:si>
   <x:si>
-    <x:t>274943</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>296890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>356268</x:t>
+    <x:t>707847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226690</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>272028</x:t>
   </x:si>
   <x:si>
     <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>529608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43658.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>261952</x:t>
-  </x:si>
-  <x:si>
-    <x:t>816384</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181590</x:t>
-  </x:si>
-  <x:si>
-    <x:t>831899</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38846.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>233077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>707847</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226690</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>272028</x:t>
   </x:si>
   <x:si>
     <x:t>920759</x:t>
@@ -720,38 +675,38 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>34</x:v>
@@ -766,211 +721,211 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
         <x:v>13</x:v>
